--- a/DataTables/Datas/buff.xlsx
+++ b/DataTables/Datas/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25800" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -52,7 +52,7 @@
     <t>iconId</t>
   </si>
   <si>
-    <t>buffGroup</t>
+    <t>buffGroupId</t>
   </si>
   <si>
     <t>maxStack</t>
@@ -61,9 +61,6 @@
     <t>btScript</t>
   </si>
   <si>
-    <t>maskType</t>
-  </si>
-  <si>
     <t>boolBuffType</t>
   </si>
   <si>
@@ -82,16 +79,16 @@
     <t>disperseValueBuffTypeList</t>
   </si>
   <si>
-    <t>immuneBuffGroupList</t>
-  </si>
-  <si>
-    <t>disperseBuffGroupList</t>
+    <t>immuneBuffGroupIdList</t>
+  </si>
+  <si>
+    <t>disperseBuffGroupIdList</t>
   </si>
   <si>
     <t>isDisperse</t>
   </si>
   <si>
-    <t>buffFx</t>
+    <t>buffFxId</t>
   </si>
   <si>
     <t>##type</t>
@@ -145,7 +142,7 @@
     <t>图标</t>
   </si>
   <si>
-    <t>buff组</t>
+    <t>buff组id</t>
   </si>
   <si>
     <t>最大层数</t>
@@ -154,16 +151,10 @@
     <t>行为树脚本</t>
   </si>
   <si>
-    <t>mask</t>
-  </si>
-  <si>
     <t>bool属性类型</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>值</t>
+    <t>value属性类型列表</t>
   </si>
   <si>
     <t>免疫boolbuff类型</t>
@@ -187,7 +178,7 @@
     <t>不可驱散</t>
   </si>
   <si>
-    <t>buff自带特效</t>
+    <t>buff自带特效Id</t>
   </si>
   <si>
     <t>Attack</t>
@@ -1130,15 +1121,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,291 +1160,262 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
       <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S4" t="s">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" t="s">
         <v>48</v>
       </c>
-      <c r="W4" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AE4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>52</v>
-      </c>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>1001</v>
       </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5">
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
+  <mergeCells count="24">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DataTables/Datas/buff.xlsx
+++ b/DataTables/Datas/buff.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -46,7 +46,7 @@
     <t>during</t>
   </si>
   <si>
-    <t>stack</t>
+    <t>stackType</t>
   </si>
   <si>
     <t>iconId</t>
@@ -55,7 +55,7 @@
     <t>buffGroupId</t>
   </si>
   <si>
-    <t>maxStack</t>
+    <t>maxLevel</t>
   </si>
   <si>
     <t>btScript</t>
@@ -103,21 +103,24 @@
     <t>float</t>
   </si>
   <si>
+    <t>StackType</t>
+  </si>
+  <si>
+    <t>BoolPropertyType</t>
+  </si>
+  <si>
+    <t>list,TBBuffValue</t>
+  </si>
+  <si>
+    <t>list,ValuePropertyType</t>
+  </si>
+  <si>
+    <t>list,int</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
-    <t>BoolPropertyType</t>
-  </si>
-  <si>
-    <t>list,TBBuffValue</t>
-  </si>
-  <si>
-    <t>list,ValuePropertyType</t>
-  </si>
-  <si>
-    <t>list,int</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -136,7 +139,7 @@
     <t>持续时间</t>
   </si>
   <si>
-    <t>能否叠加</t>
+    <t>叠加类型</t>
   </si>
   <si>
     <t>图标</t>
@@ -797,15 +800,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1271,7 +1271,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>28</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
@@ -1306,85 +1306,85 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+      <c r="AE4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5">
         <v>100</v>
